--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Areg</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Areg</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H2">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I2">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J2">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.03176292905400001</v>
+        <v>0.2842276115911111</v>
       </c>
       <c r="R2">
-        <v>0.285866361486</v>
+        <v>2.55804850432</v>
       </c>
       <c r="S2">
-        <v>0.0002277281265631829</v>
+        <v>0.0009256604646422596</v>
       </c>
       <c r="T2">
-        <v>0.0002277281265631829</v>
+        <v>0.0009256604646422595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H3">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I3">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J3">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>2.087556863195889</v>
+        <v>7.980386448903112</v>
       </c>
       <c r="R3">
-        <v>18.788011768763</v>
+        <v>71.82347804012801</v>
       </c>
       <c r="S3">
-        <v>0.01496698911934403</v>
+        <v>0.02599018507372727</v>
       </c>
       <c r="T3">
-        <v>0.01496698911934403</v>
+        <v>0.02599018507372726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H4">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I4">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J4">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.01059620546744445</v>
+        <v>0.1459880410382222</v>
       </c>
       <c r="R4">
-        <v>0.09536584920700002</v>
+        <v>1.313892369344</v>
       </c>
       <c r="S4">
-        <v>7.597076502854185E-05</v>
+        <v>0.0004754476778071065</v>
       </c>
       <c r="T4">
-        <v>7.597076502854185E-05</v>
+        <v>0.0004754476778071064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H5">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I5">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J5">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>0.8995857751607779</v>
+        <v>1.319341198812444</v>
       </c>
       <c r="R5">
-        <v>8.096271976447001</v>
+        <v>11.874070789312</v>
       </c>
       <c r="S5">
-        <v>0.00644968802820324</v>
+        <v>0.004296774617630416</v>
       </c>
       <c r="T5">
-        <v>0.00644968802820324</v>
+        <v>0.004296774617630416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H6">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I6">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J6">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.1154756179722222</v>
+        <v>0.8308561744853333</v>
       </c>
       <c r="R6">
-        <v>1.03928056175</v>
+        <v>7.477705570368</v>
       </c>
       <c r="S6">
-        <v>0.0008279162825264794</v>
+        <v>0.00270589724981187</v>
       </c>
       <c r="T6">
-        <v>0.0008279162825264794</v>
+        <v>0.00270589724981187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04546433333333334</v>
+        <v>0.1738026666666667</v>
       </c>
       <c r="H7">
-        <v>0.136393</v>
+        <v>0.521408</v>
       </c>
       <c r="I7">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="J7">
-        <v>0.02269111843342061</v>
+        <v>0.03449168901304413</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.019921016008</v>
+        <v>0.030006508992</v>
       </c>
       <c r="R7">
-        <v>0.179289144072</v>
+        <v>0.270058580928</v>
       </c>
       <c r="S7">
-        <v>0.0001428261117551346</v>
+        <v>9.772392942521393E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001428261117551346</v>
+        <v>9.772392942521391E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H8">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I8">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J8">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.5901657153060001</v>
+        <v>0.07434994596888889</v>
       </c>
       <c r="R8">
-        <v>5.311491437754</v>
+        <v>0.66914951372</v>
       </c>
       <c r="S8">
-        <v>0.004231263825825632</v>
+        <v>0.0002421397595624764</v>
       </c>
       <c r="T8">
-        <v>0.004231263825825631</v>
+        <v>0.0002421397595624764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H9">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I9">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J9">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>38.78749618196188</v>
+        <v>2.087556863195889</v>
       </c>
       <c r="R9">
-        <v>349.087465637657</v>
+        <v>18.788011768763</v>
       </c>
       <c r="S9">
-        <v>0.2780916024645537</v>
+        <v>0.006798666903386374</v>
       </c>
       <c r="T9">
-        <v>0.2780916024645537</v>
+        <v>0.006798666903386374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H10">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I10">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J10">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.1968809982414445</v>
+        <v>0.03818841843877777</v>
       </c>
       <c r="R10">
-        <v>1.771928984173</v>
+        <v>0.3436957659489999</v>
       </c>
       <c r="S10">
-        <v>0.001411561912605387</v>
+        <v>0.0001243704260754432</v>
       </c>
       <c r="T10">
-        <v>0.001411561912605387</v>
+        <v>0.0001243704260754432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H11">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I11">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J11">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>16.71460089761478</v>
+        <v>0.3451211031085555</v>
       </c>
       <c r="R11">
-        <v>150.431408078533</v>
+        <v>3.106089927977</v>
       </c>
       <c r="S11">
-        <v>0.1198373343401011</v>
+        <v>0.001123975812458699</v>
       </c>
       <c r="T11">
-        <v>0.1198373343401011</v>
+        <v>0.001123975812458699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.8447423333333334</v>
+        <v>0.04546433333333333</v>
       </c>
       <c r="H12">
-        <v>2.534227</v>
+        <v>0.136393</v>
       </c>
       <c r="I12">
-        <v>0.4216084769318969</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="J12">
-        <v>0.4216084769318968</v>
+        <v>0.009022540773360069</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>2.145575131472222</v>
+        <v>0.2173402905336667</v>
       </c>
       <c r="R12">
-        <v>19.31017618325</v>
+        <v>1.956062614803</v>
       </c>
       <c r="S12">
-        <v>0.01538295804710089</v>
+        <v>0.0007078246662759113</v>
       </c>
       <c r="T12">
-        <v>0.01538295804710089</v>
+        <v>0.0007078246662759112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04546433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.136393</v>
+      </c>
+      <c r="I13">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="J13">
+        <v>0.009022540773360069</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.8447423333333334</v>
-      </c>
-      <c r="H13">
-        <v>2.534227</v>
-      </c>
-      <c r="I13">
-        <v>0.4216084769318969</v>
-      </c>
-      <c r="J13">
-        <v>0.4216084769318968</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.370139058712</v>
+        <v>0.007849280756999999</v>
       </c>
       <c r="R13">
-        <v>3.331251528408</v>
+        <v>0.07064352681299998</v>
       </c>
       <c r="S13">
-        <v>0.002653756341710202</v>
+        <v>2.556320560116684E-05</v>
       </c>
       <c r="T13">
-        <v>0.002653756341710202</v>
+        <v>2.556320560116684E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H14">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I14">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J14">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>0.346015255716</v>
+        <v>2.890945668057778</v>
       </c>
       <c r="R14">
-        <v>3.114137301444</v>
+        <v>26.01851101252</v>
       </c>
       <c r="S14">
-        <v>0.002480797844950705</v>
+        <v>0.009415109585481174</v>
       </c>
       <c r="T14">
-        <v>0.002480797844950705</v>
+        <v>0.009415109585481172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H15">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I15">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J15">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>22.74118109864466</v>
+        <v>81.17038138811481</v>
       </c>
       <c r="R15">
-        <v>204.670629887802</v>
+        <v>730.5334324930332</v>
       </c>
       <c r="S15">
-        <v>0.1630456233625038</v>
+        <v>0.2643522651803529</v>
       </c>
       <c r="T15">
-        <v>0.1630456233625038</v>
+        <v>0.2643522651803529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H16">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I16">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J16">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.1154316951753333</v>
+        <v>1.484878588906555</v>
       </c>
       <c r="R16">
-        <v>1.038885256578</v>
+        <v>13.363907300159</v>
       </c>
       <c r="S16">
-        <v>0.0008276013727701428</v>
+        <v>0.00483588978864561</v>
       </c>
       <c r="T16">
-        <v>0.0008276013727701427</v>
+        <v>0.004835889788645608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H17">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I17">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J17">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>9.799801570615333</v>
+        <v>13.41932862203411</v>
       </c>
       <c r="R17">
-        <v>88.198214135538</v>
+        <v>120.773957598307</v>
       </c>
       <c r="S17">
-        <v>0.07026085184313705</v>
+        <v>0.04370350191496927</v>
       </c>
       <c r="T17">
-        <v>0.07026085184313705</v>
+        <v>0.04370350191496927</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4952739999999999</v>
+        <v>1.767787666666667</v>
       </c>
       <c r="H18">
-        <v>1.485822</v>
+        <v>5.303363</v>
       </c>
       <c r="I18">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="J18">
-        <v>0.2471898335910338</v>
+        <v>0.3508230547273627</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>1.257954687166666</v>
+        <v>8.450832925630333</v>
       </c>
       <c r="R18">
-        <v>11.3215921845</v>
+        <v>76.057496330673</v>
       </c>
       <c r="S18">
-        <v>0.009019056892480247</v>
+        <v>0.02752231526262357</v>
       </c>
       <c r="T18">
-        <v>0.009019056892480247</v>
+        <v>0.02752231526262356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.767787666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.303363</v>
+      </c>
+      <c r="I19">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="J19">
+        <v>0.3508230547273627</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.4952739999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.485822</v>
-      </c>
-      <c r="I19">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="J19">
-        <v>0.2471898335910338</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.2170132180319999</v>
+        <v>0.305203237287</v>
       </c>
       <c r="R19">
-        <v>1.953118962287999</v>
+        <v>2.746829135583</v>
       </c>
       <c r="S19">
-        <v>0.001555902275191818</v>
+        <v>0.0009939729952902351</v>
       </c>
       <c r="T19">
-        <v>0.001555902275191818</v>
+        <v>0.0009939729952902346</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H20">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I20">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J20">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>0.22974928407</v>
+        <v>3.091966841248889</v>
       </c>
       <c r="R20">
-        <v>2.06774355663</v>
+        <v>27.82770157124</v>
       </c>
       <c r="S20">
-        <v>0.001647215027038092</v>
+        <v>0.01006978684057737</v>
       </c>
       <c r="T20">
-        <v>0.001647215027038092</v>
+        <v>0.01006978684057737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H21">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I21">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J21">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>15.09982577360166</v>
+        <v>86.81454325365792</v>
       </c>
       <c r="R21">
-        <v>135.898431962415</v>
+        <v>781.3308892829211</v>
       </c>
       <c r="S21">
-        <v>0.1082600105615805</v>
+        <v>0.2827339328365229</v>
       </c>
       <c r="T21">
-        <v>0.1082600105615805</v>
+        <v>0.2827339328365228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H22">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I22">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J22">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>0.07664502904833333</v>
+        <v>1.588129244664778</v>
       </c>
       <c r="R22">
-        <v>0.689805261435</v>
+        <v>14.293163201983</v>
       </c>
       <c r="S22">
-        <v>0.0005495157214841185</v>
+        <v>0.005172152157557424</v>
       </c>
       <c r="T22">
-        <v>0.0005495157214841185</v>
+        <v>0.005172152157557423</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H23">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I23">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J23">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>6.506931002848333</v>
+        <v>14.35243823140656</v>
       </c>
       <c r="R23">
-        <v>58.562379025635</v>
+        <v>129.171944082659</v>
       </c>
       <c r="S23">
-        <v>0.04665222166492655</v>
+        <v>0.04674241382693521</v>
       </c>
       <c r="T23">
-        <v>0.04665222166492655</v>
+        <v>0.0467424138269352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H24">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I24">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J24">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>0.8352642954166666</v>
+        <v>9.038459447955669</v>
       </c>
       <c r="R24">
-        <v>7.517378658749999</v>
+        <v>81.34613503160101</v>
       </c>
       <c r="S24">
-        <v>0.005988527470403437</v>
+        <v>0.02943607246814904</v>
       </c>
       <c r="T24">
-        <v>0.005988527470403437</v>
+        <v>0.02943607246814903</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.328855</v>
+        <v>1.890710333333333</v>
       </c>
       <c r="H25">
-        <v>0.9865649999999999</v>
+        <v>5.672131</v>
       </c>
       <c r="I25">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="J25">
-        <v>0.16413058776673</v>
+        <v>0.3752174467849496</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>0.14409373764</v>
+        <v>0.326425466919</v>
       </c>
       <c r="R25">
-        <v>1.29684363876</v>
+        <v>2.937829202271</v>
       </c>
       <c r="S25">
-        <v>0.001033097321297313</v>
+        <v>0.001063088655207761</v>
       </c>
       <c r="T25">
-        <v>0.001033097321297313</v>
+        <v>0.001063088655207761</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,25 +2022,25 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H26">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I26">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J26">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>0.202102473666</v>
+        <v>1.898976541875556</v>
       </c>
       <c r="R26">
-        <v>1.818922262994</v>
+        <v>17.09078887688</v>
       </c>
       <c r="S26">
-        <v>0.001448997906442989</v>
+        <v>0.006184506488504198</v>
       </c>
       <c r="T26">
-        <v>0.001448997906442989</v>
+        <v>0.006184506488504198</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,25 +2084,25 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H27">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I27">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J27">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>13.28279281967522</v>
+        <v>53.31841820973357</v>
       </c>
       <c r="R27">
-        <v>119.545135377077</v>
+        <v>479.8657638876021</v>
       </c>
       <c r="S27">
-        <v>0.09523257503138256</v>
+        <v>0.1736451694391108</v>
       </c>
       <c r="T27">
-        <v>0.09523257503138255</v>
+        <v>0.1736451694391108</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,25 +2146,25 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H28">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I28">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J28">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.06742197272811112</v>
+        <v>0.9753727436051109</v>
       </c>
       <c r="R28">
-        <v>0.606797754553</v>
+        <v>8.778354692445999</v>
       </c>
       <c r="S28">
-        <v>0.0004833899138352039</v>
+        <v>0.003176552700107685</v>
       </c>
       <c r="T28">
-        <v>0.0004833899138352039</v>
+        <v>0.003176552700107685</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H29">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I29">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J29">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>5.723921434501445</v>
+        <v>8.814759316484222</v>
       </c>
       <c r="R29">
-        <v>51.515292910513</v>
+        <v>79.33283384835799</v>
       </c>
       <c r="S29">
-        <v>0.04103834072285306</v>
+        <v>0.02870753534088258</v>
       </c>
       <c r="T29">
-        <v>0.04103834072285305</v>
+        <v>0.02870753534088258</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2892823333333334</v>
+        <v>1.161207333333333</v>
       </c>
       <c r="H30">
-        <v>0.867847</v>
+        <v>3.483622</v>
       </c>
       <c r="I30">
-        <v>0.1443799832769188</v>
+        <v>0.2304452687012834</v>
       </c>
       <c r="J30">
-        <v>0.1443799832769187</v>
+        <v>0.2304452687012835</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>0.7347530198055556</v>
+        <v>5.551101725084666</v>
       </c>
       <c r="R30">
-        <v>6.61277717825</v>
+        <v>49.959915525762</v>
       </c>
       <c r="S30">
-        <v>0.005267899833875328</v>
+        <v>0.01807859332650079</v>
       </c>
       <c r="T30">
-        <v>0.005267899833875327</v>
+        <v>0.01807859332650079</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.161207333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.483622</v>
+      </c>
+      <c r="I31">
+        <v>0.2304452687012834</v>
+      </c>
+      <c r="J31">
+        <v>0.2304452687012835</v>
+      </c>
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="L31">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G31">
-        <v>0.2892823333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.867847</v>
-      </c>
-      <c r="I31">
-        <v>0.1443799832769188</v>
-      </c>
-      <c r="J31">
-        <v>0.1443799832769187</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>0.126754261432</v>
+        <v>0.200478962478</v>
       </c>
       <c r="R31">
-        <v>1.140788352888</v>
+        <v>1.804310662302</v>
       </c>
       <c r="S31">
-        <v>0.0009087798685296044</v>
+        <v>0.0006529114061773554</v>
       </c>
       <c r="T31">
-        <v>0.0009087798685296042</v>
+        <v>0.0006529114061773554</v>
       </c>
     </row>
   </sheetData>
